--- a/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderDesarrollo.xlsx
+++ b/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderDesarrollo.xlsx
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -436,6 +436,9 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -457,6 +460,9 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -476,7 +482,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -522,13 +528,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.88"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="26" width="9.38"/>
+    <col customWidth="1" min="1" max="1" width="26.14"/>
+    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="5" width="12.14"/>
+    <col customWidth="1" min="6" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -764,8 +770,8 @@
       <c r="C15" s="15">
         <v>90.0</v>
       </c>
-      <c r="D15" s="18">
-        <v>1.0</v>
+      <c r="D15" s="27">
+        <v>2.0</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="3"/>
@@ -865,56 +871,62 @@
         <f t="shared" si="5"/>
         <v>0.04035874439</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="17">
+        <v>3.0</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="31">
         <v>30.0</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="32">
         <v>2.0</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="33">
         <f t="shared" si="5"/>
         <v>0.0134529148</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35">
+        <v>3.0</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="38">
         <v>120.0</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="39">
         <v>2.0</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="40">
         <f t="shared" si="5"/>
         <v>0.05381165919</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42">
+        <v>3.0</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -927,18 +939,20 @@
       <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="43">
         <v>60.0</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="43">
         <v>2.0</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="40">
         <f t="shared" si="5"/>
         <v>0.0269058296</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="43">
+        <v>3.0</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -946,7 +960,7 @@
     </row>
     <row r="23">
       <c r="A23" s="22"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="22"/>
@@ -973,8 +987,10 @@
         <f t="shared" ref="E24:E28" si="7">C24/$C$36</f>
         <v>0.08071748879</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="17">
+        <v>4.0</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" ref="H24:H28" si="8">F24/$F$36</f>
         <v>0</v>
@@ -997,7 +1013,7 @@
         <f t="shared" si="7"/>
         <v>0.0269058296</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="15"/>
       <c r="H25" s="21">
         <f t="shared" si="8"/>
@@ -1021,7 +1037,7 @@
         <f t="shared" si="7"/>
         <v>0.08071748879</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="15"/>
       <c r="H26" s="21">
         <f t="shared" si="8"/>
@@ -1045,7 +1061,7 @@
         <f t="shared" si="7"/>
         <v>0.008968609865</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="15"/>
       <c r="H27" s="21">
         <f t="shared" si="8"/>
@@ -1069,7 +1085,7 @@
         <f t="shared" si="7"/>
         <v>0.0269058296</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="15"/>
       <c r="H28" s="21">
         <f t="shared" si="8"/>
@@ -1077,15 +1093,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="26"/>
     </row>
     <row r="30">
@@ -1105,7 +1121,7 @@
         <f t="shared" ref="E30:E34" si="9">C30/$C$36</f>
         <v>0.05381165919</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="15"/>
       <c r="H30" s="21">
         <f t="shared" ref="H30:H34" si="10">F30/$F$36</f>
@@ -1129,7 +1145,7 @@
         <f t="shared" si="9"/>
         <v>0.04932735426</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21">
         <f t="shared" si="10"/>
@@ -1153,7 +1169,7 @@
         <f t="shared" si="9"/>
         <v>0.04035874439</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21">
         <f t="shared" si="10"/>
@@ -1177,7 +1193,7 @@
         <f t="shared" si="9"/>
         <v>0.05381165919</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21">
         <f t="shared" si="10"/>
@@ -1188,7 +1204,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="15">
@@ -1201,7 +1217,7 @@
         <f t="shared" si="9"/>
         <v>0.0269058296</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21">
         <f t="shared" si="10"/>
@@ -1210,10 +1226,10 @@
     </row>
     <row r="35">
       <c r="A35" s="22"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="22"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -1221,18 +1237,18 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="50">
         <f>SUM(C10:C34)</f>
         <v>2230</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="51">
         <f>SUM(E10:E34)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="50">
         <f>SUM(F12:F33)</f>
         <v>345</v>
       </c>
